--- a/baseweb/WebContent/upload/template/大连市分库预算收支存分科目统计表[地方].xlsx
+++ b/baseweb/WebContent/upload/template/大连市分库预算收支存分科目统计表[地方].xlsx
@@ -179,7 +179,7 @@
     <t>(T0206)--国有资本经营预算支出合计</t>
   </si>
   <si>
-    <t>国库库存</t>
+    <t>(T00)--国库库存</t>
   </si>
 </sst>
 </file>
@@ -220,7 +220,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -229,7 +228,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -237,7 +236,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -250,10 +256,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -265,28 +272,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -302,8 +288,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -317,11 +304,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -342,23 +350,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -373,19 +373,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -397,163 +529,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -808,11 +808,44 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -870,39 +903,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -911,10 +911,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -923,133 +923,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="24" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1511,8 +1511,8 @@
   <sheetPr/>
   <dimension ref="A2:I48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1615,7 +1615,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" s="2" customFormat="1" spans="1:9">
+    <row r="7" s="2" customFormat="1" ht="12" spans="1:9">
       <c r="A7" s="20" t="s">
         <v>12</v>
       </c>
@@ -1802,7 +1802,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" s="2" customFormat="1" spans="1:9">
+    <row r="14" s="2" customFormat="1" ht="12" spans="1:9">
       <c r="A14" s="20" t="s">
         <v>19</v>
       </c>
@@ -1960,7 +1960,7 @@
         <v>30.8648810919355</v>
       </c>
     </row>
-    <row r="20" s="2" customFormat="1" spans="1:9">
+    <row r="20" s="2" customFormat="1" ht="12" spans="1:9">
       <c r="A20" s="22" t="s">
         <v>25</v>
       </c>
